--- a/src/test/resources/TestData/Credentials.xlsx
+++ b/src/test/resources/TestData/Credentials.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruchi\Desktop\learn\eclipse\Sauce-Demo\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruchi\Desktop\learn\eclipse\Sauce-Demo-Automation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E263FD-E278-4C3E-9C99-860C48717C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941469D9-63AA-4709-B766-9FC855E7B84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
+    <sheet name="CheckoutDetails" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>password</t>
   </si>
@@ -73,6 +74,21 @@
   </si>
   <si>
     <t>VisualUSer</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>Rachi</t>
+  </si>
+  <si>
+    <t>Sachi</t>
   </si>
 </sst>
 </file>
@@ -108,8 +124,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,7 +409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -482,4 +499,42 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FA0847-210F-4F81-99F1-8061FB894D04}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3450472</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>